--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_APFA_DebtInvestmentProfile_AddNewProfile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF16174A-FEFD-430C-A6E9-757A5CD8CD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5626015C-00DD-4AD8-996D-4BEB0BFB7792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="NM Fields" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Iteration</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>getData=DebtType</t>
+  </si>
+  <si>
+    <t>link_debtInvestmentProfile_link</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +621,7 @@
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -638,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -652,7 +655,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -664,7 +667,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -678,7 +681,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -692,7 +695,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -706,7 +709,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -720,7 +723,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -734,7 +737,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>48</v>
       </c>
@@ -748,7 +751,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -762,7 +765,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -776,7 +779,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -790,7 +793,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -803,6 +806,21 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
